--- a/biology/Botanique/Rubus_caesius/Rubus_caesius.xlsx
+++ b/biology/Botanique/Rubus_caesius/Rubus_caesius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ronce bleue ou Ronce des champs (Rubus caesius L.) est une espèce de plantes à fleurs de la famille des Rosacées.
 Elle est très commune dans les régions tempérées où elle produit un fruit comestible acidulé, ressemblant à une mûre avec un voile blanc, à la texture de framboise et goût de myrtille.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus : du latin  ruber = rouge; caesius = bleu glauque, allusion probable à la couleur des tiges de cette plante pruineuse.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite ronce rampante et épineuse. C'est une sous-arbrisseau de 50 cm à 1 m, muni d'une tige cylindrique dépourvue de poils, de couleur bleuâtre glauque munie de glandes et de petits aiguillons grêles souvent courbés, vulnérants.
 			Fleur.
@@ -581,7 +597,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique. Étages collinéen et montagnard (jusqu'à 1 500 mètres d'altitude). Présent sur tout le territoire de la France métropolitaine, plus rare en région méditerranéenne et absent en Corse.
 </t>
@@ -612,7 +630,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Terrains humides et riches en nitrates : Sous-bois, haies, fossés,  friches, champs, peupleraies, frênaies-aulnaies, saulaies, forêts ripicoles, fruticées sur sols frais.
 Caractère indicateur: Mésohygrophile neutrocline.
@@ -644,7 +664,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont consommables. Les feuilles et les jeunes pousses sont astringentes, toniques, diurétiques et dépuratives.
 </t>
